--- a/tests/data.gui/test/emf/dsp.2/kev.emf.constants.data.xlsx
+++ b/tests/data.gui/test/emf/dsp.2/kev.emf.constants.data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -411,16 +411,19 @@
     <t xml:space="preserve">2.3660888671875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.040234418997551</t>
+    <t xml:space="preserve">0.0402344189973159</t>
   </si>
   <si>
     <t xml:space="preserve">3.439453125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0871201977823689</t>
+    <t xml:space="preserve">0.0871201977817165</t>
   </si>
   <si>
     <t xml:space="preserve">Adj. R^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993383</t>
   </si>
 </sst>
 </file>
@@ -863,12 +866,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.67691124919557</v>
+        <v>-0.676911249190314</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.676911249195569</v>
+        <v>-0.676911249190315</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -894,8 +897,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.99338279551874</v>
+      <c r="A2" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1420,13 +1423,13 @@
         <v>0.00141200973533165</v>
       </c>
       <c r="F2" t="n">
-        <v>5.98006656899518e-06</v>
+        <v>0.00000598006656899518</v>
       </c>
       <c r="G2" t="n">
-        <v>2.28797171406989e-10</v>
+        <v>0.000000000228797171406989</v>
       </c>
       <c r="H2" t="n">
-        <v>1.47640632414968e-12</v>
+        <v>0.00000000000147640632414968</v>
       </c>
     </row>
     <row r="3">
@@ -1446,13 +1449,13 @@
         <v>0.00326616888126163</v>
       </c>
       <c r="F3" t="n">
-        <v>3.65204751838717e-05</v>
+        <v>0.0000365204751838717</v>
       </c>
       <c r="G3" t="n">
-        <v>2.14186022498473e-10</v>
+        <v>0.000000000214186022498473</v>
       </c>
       <c r="H3" t="n">
-        <v>1.5775200275551e-12</v>
+        <v>0.0000000000015775200275551</v>
       </c>
     </row>
     <row r="4">
@@ -1475,10 +1478,10 @@
         <v>0.000103214853160707</v>
       </c>
       <c r="G4" t="n">
-        <v>1.98931767022799e-10</v>
+        <v>0.000000000198931767022799</v>
       </c>
       <c r="H4" t="n">
-        <v>1.70906619566545e-12</v>
+        <v>0.00000000000170906619566545</v>
       </c>
     </row>
     <row r="5">
@@ -1501,10 +1504,10 @@
         <v>0.000209448460385143</v>
       </c>
       <c r="G5" t="n">
-        <v>1.8441535034266e-10</v>
+        <v>0.00000000018441535034266</v>
       </c>
       <c r="H5" t="n">
-        <v>1.86853159808121e-12</v>
+        <v>0.00000000000186853159808121</v>
       </c>
     </row>
     <row r="6">
@@ -1527,10 +1530,10 @@
         <v>0.00030682114112535</v>
       </c>
       <c r="G6" t="n">
-        <v>1.75149118728082e-10</v>
+        <v>0.000000000175149118728082</v>
       </c>
       <c r="H6" t="n">
-        <v>1.99736776227437e-12</v>
+        <v>0.00000000000199736776227437</v>
       </c>
     </row>
     <row r="7">
@@ -1553,10 +1556,10 @@
         <v>0.000423654710097058</v>
       </c>
       <c r="G7" t="n">
-        <v>1.66481547434145e-10</v>
+        <v>0.000000000166481547434145</v>
       </c>
       <c r="H7" t="n">
-        <v>2.14241249531033e-12</v>
+        <v>0.00000000000214241249531033</v>
       </c>
     </row>
     <row r="8">
@@ -1579,10 +1582,10 @@
         <v>0.00055854036481158</v>
       </c>
       <c r="G8" t="n">
-        <v>1.58364853490569e-10</v>
+        <v>0.000000000158364853490569</v>
       </c>
       <c r="H8" t="n">
-        <v>2.30273291084426e-12</v>
+        <v>0.00000000000230273291084426</v>
       </c>
     </row>
     <row r="9">
@@ -1605,10 +1608,10 @@
         <v>0.00072709488676656</v>
       </c>
       <c r="G9" t="n">
-        <v>1.50238436676421e-10</v>
+        <v>0.000000000150238436676421</v>
       </c>
       <c r="H9" t="n">
-        <v>2.50045999193815e-12</v>
+        <v>0.00000000000250045999193815</v>
       </c>
     </row>
     <row r="10">
@@ -1631,10 +1634,10 @@
         <v>0.000919787096701863</v>
       </c>
       <c r="G10" t="n">
-        <v>1.42558610163498e-10</v>
+        <v>0.000000000142558610163498</v>
       </c>
       <c r="H10" t="n">
-        <v>2.72768900406848e-12</v>
+        <v>0.00000000000272768900406848</v>
       </c>
     </row>
     <row r="11">
@@ -1657,10 +1660,10 @@
         <v>0.00109745871349534</v>
       </c>
       <c r="G11" t="n">
-        <v>1.3655892242346e-10</v>
+        <v>0.00000000013655892242346</v>
       </c>
       <c r="H11" t="n">
-        <v>2.94078712882664e-12</v>
+        <v>0.00000000000294078712882664</v>
       </c>
     </row>
     <row r="12">
@@ -1683,10 +1686,10 @@
         <v>0.00124310324622264</v>
       </c>
       <c r="G12" t="n">
-        <v>1.3215320401271e-10</v>
+        <v>0.00000000013215320401271</v>
       </c>
       <c r="H12" t="n">
-        <v>3.12023849844598e-12</v>
+        <v>0.00000000000312023849844598</v>
       </c>
     </row>
     <row r="13">
@@ -1709,10 +1712,10 @@
         <v>0.00139560406337121</v>
       </c>
       <c r="G13" t="n">
-        <v>1.28079573503558e-10</v>
+        <v>0.000000000128079573503558</v>
       </c>
       <c r="H13" t="n">
-        <v>3.31246578652837e-12</v>
+        <v>0.00000000000331246578652837</v>
       </c>
     </row>
     <row r="14">
@@ -1735,10 +1738,10 @@
         <v>0.00154643475565669</v>
       </c>
       <c r="G14" t="n">
-        <v>1.24341196499961e-10</v>
+        <v>0.000000000124341196499961</v>
       </c>
       <c r="H14" t="n">
-        <v>3.50886858587928e-12</v>
+        <v>0.00000000000350886858587928</v>
       </c>
     </row>
     <row r="15">
@@ -1761,10 +1764,10 @@
         <v>0.00170816567811367</v>
       </c>
       <c r="G15" t="n">
-        <v>1.20620377190038e-10</v>
+        <v>0.000000000120620377190038</v>
       </c>
       <c r="H15" t="n">
-        <v>3.72808128574448e-12</v>
+        <v>0.00000000000372808128574448</v>
       </c>
     </row>
     <row r="16">
@@ -1787,10 +1790,10 @@
         <v>0.0019126666960821</v>
       </c>
       <c r="G16" t="n">
-        <v>1.1628416391006e-10</v>
+        <v>0.00000000011628416391006</v>
       </c>
       <c r="H16" t="n">
-        <v>4.01743683772444e-12</v>
+        <v>0.00000000000401743683772444</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +1933,7 @@
         <v>0.474515325830339</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0352566172963975</v>
+        <v>-0.0352566172963691</v>
       </c>
       <c r="G3" t="n">
         <v>-0.0617081086028577</v>
@@ -2103,7 +2106,7 @@
         <v>0.0021221615645364</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.000158956795745706</v>
+        <v>-0.000158956795745577</v>
       </c>
       <c r="G3" t="n">
         <v>-0.000280363964574547</v>
@@ -2124,7 +2127,7 @@
         <v>-0.00179752457313836</v>
       </c>
       <c r="M3" t="n">
-        <v>-5.69597110896427e-05</v>
+        <v>-0.0000569597110896427</v>
       </c>
       <c r="N3" t="n">
         <v>0.000194168469284169</v>
